--- a/DMS Cell/DMS Cell Part List.xlsx
+++ b/DMS Cell/DMS Cell Part List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan Koch\Documents\GitHub\OpenDMS\DMS Cell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD38E5E-C270-499F-979B-79B0E5DEC691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2CA02E-8D62-4CF4-83B0-0788872FF04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18000" xr2:uid="{EF603B50-99E4-4B30-90A2-FAAFF656392F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Qty</t>
   </si>
@@ -114,14 +114,26 @@
   </si>
   <si>
     <t>Kicad Side B</t>
+  </si>
+  <si>
+    <t>200 x 200 mm</t>
+  </si>
+  <si>
+    <t>Expanded PTFE</t>
+  </si>
+  <si>
+    <t>Flow channel (0.5 mm thickness)</t>
+  </si>
+  <si>
+    <t>Aliexpress 
+https://www.aliexpress.us/item/3256801095879614.html?spm=a2g0o.order_detail.order_detail_item.3.4f09f19cet5IoE&amp;gatewayAdapt=glo2usa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -214,10 +226,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,6 +239,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7650600-C130-463D-90B3-5A99CBA0D152}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -583,45 +597,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.75" x14ac:dyDescent="0.85">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -639,16 +653,16 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>13.85</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <f>G3*A3</f>
         <v>27.7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -663,13 +677,13 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>0.35</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <f>G4*A4</f>
         <v>2.0999999999999996</v>
       </c>
@@ -693,8 +707,8 @@
       <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -714,6 +728,32 @@
       </c>
       <c r="F6" t="s">
         <v>23</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" ref="H5:H7" si="0">G7*A7</f>
+        <v>22.8</v>
       </c>
     </row>
   </sheetData>

--- a/DMS Cell/DMS Cell Part List.xlsx
+++ b/DMS Cell/DMS Cell Part List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan Koch\Documents\GitHub\OpenDMS\DMS Cell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2CA02E-8D62-4CF4-83B0-0788872FF04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3928A2-1351-4BA8-B8FA-F715BD526D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18000" xr2:uid="{EF603B50-99E4-4B30-90A2-FAAFF656392F}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Digikey</t>
   </si>
   <si>
-    <t>DMS Cell Rev 1.0, March 18, 2023</t>
-  </si>
-  <si>
     <t>cablesondemand</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   <si>
     <t>Aliexpress 
 https://www.aliexpress.us/item/3256801095879614.html?spm=a2g0o.order_detail.order_detail_item.3.4f09f19cet5IoE&amp;gatewayAdapt=glo2usa</t>
+  </si>
+  <si>
+    <t>DMS Cell Rev 1.0, March 18, 2024</t>
   </si>
 </sst>
 </file>
@@ -239,11 +239,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,7 +582,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -597,16 +597,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.75" x14ac:dyDescent="0.85">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -639,19 +639,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
       <c r="G3" s="4">
         <v>13.85</v>
@@ -666,19 +666,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4">
         <v>0.35</v>
@@ -693,19 +693,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -715,19 +715,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -737,22 +737,22 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="G7" s="4">
         <v>22.8</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" ref="H5:H7" si="0">G7*A7</f>
+        <f t="shared" ref="H7" si="0">G7*A7</f>
         <v>22.8</v>
       </c>
     </row>
